--- a/media/Excel/108_data.xlsx
+++ b/media/Excel/108_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommygood\grade1\imCredit\media\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82AA5A7-0F5B-4AFC-96E2-10DA00ED3FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBD68C8-21C6-4C4F-B22C-6985B1AB2F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,9 +299,6 @@
     <t>資料結構與演算法(上)</t>
   </si>
   <si>
-    <t>Linux 系統管理實務(一)</t>
-  </si>
-  <si>
     <t>微積分與實習(下)</t>
   </si>
   <si>
@@ -1725,6 +1722,10 @@
   </si>
   <si>
     <t>日月潭觀光行銷</t>
+  </si>
+  <si>
+    <t>Linux 系統管理實務(一)$~$Linux 系統管理實務（一，入門）</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2452,6 +2453,10 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2463,10 +2468,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2843,7 +2844,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2874,201 +2875,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="76"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
@@ -3301,25 +3302,25 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="77" t="s">
+      <c r="F27" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="78"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3644,7 +3645,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="30" t="s">
-        <v>55</v>
+        <v>527</v>
       </c>
       <c r="F11" s="31">
         <v>3</v>
@@ -3652,7 +3653,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" s="28">
         <v>3</v>
@@ -3662,7 +3663,7 @@
     </row>
     <row r="12" spans="1:12" s="27" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="28">
         <v>3</v>
@@ -3678,7 +3679,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J12" s="28">
         <v>3</v>
@@ -3688,7 +3689,7 @@
     </row>
     <row r="13" spans="1:12" s="27" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="28">
         <v>3</v>
@@ -3696,7 +3697,7 @@
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="28">
         <v>3</v>
@@ -3704,7 +3705,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="28">
         <v>3</v>
@@ -3714,7 +3715,7 @@
     </row>
     <row r="14" spans="1:12" s="27" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="28">
         <v>3</v>
@@ -3722,7 +3723,7 @@
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="28">
         <v>3</v>
@@ -3730,7 +3731,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="28">
         <v>3</v>
@@ -3740,7 +3741,7 @@
     </row>
     <row r="15" spans="1:12" s="27" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="28">
         <v>3</v>
@@ -3750,7 +3751,7 @@
     </row>
     <row r="16" spans="1:12" s="27" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="28">
         <v>3</v>
@@ -3764,7 +3765,7 @@
     </row>
     <row r="17" spans="1:12" s="27" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="28">
         <v>3</v>
@@ -3811,7 +3812,7 @@
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3847,7 +3848,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>2</v>
@@ -3891,7 +3892,7 @@
     </row>
     <row r="2" spans="1:19" s="39" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="31">
         <v>1</v>
@@ -3899,7 +3900,7 @@
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="31">
         <v>3</v>
@@ -3907,7 +3908,7 @@
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
       <c r="I2" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" s="31">
         <v>3</v>
@@ -3915,7 +3916,7 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="M2" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N2" s="31">
         <v>3</v>
@@ -3926,7 +3927,7 @@
     </row>
     <row r="3" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="31">
         <v>1</v>
@@ -3934,7 +3935,7 @@
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="31">
         <v>3</v>
@@ -3942,7 +3943,7 @@
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" s="31">
         <v>3</v>
@@ -3950,7 +3951,7 @@
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
       <c r="M3" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N3" s="31">
         <v>3</v>
@@ -3963,7 +3964,7 @@
     </row>
     <row r="4" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="31">
         <v>3</v>
@@ -3971,7 +3972,7 @@
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="31">
         <v>3</v>
@@ -3979,7 +3980,7 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J4" s="31">
         <v>3</v>
@@ -3987,7 +3988,7 @@
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
       <c r="M4" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N4" s="31">
         <v>2</v>
@@ -4000,7 +4001,7 @@
     </row>
     <row r="5" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="31">
         <v>3</v>
@@ -4008,7 +4009,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="31">
         <v>3</v>
@@ -4016,7 +4017,7 @@
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" s="31">
         <v>3</v>
@@ -4033,7 +4034,7 @@
     </row>
     <row r="6" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="31">
         <v>3</v>
@@ -4041,7 +4042,7 @@
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="31">
         <v>3</v>
@@ -4049,7 +4050,7 @@
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
       <c r="I6" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" s="31">
         <v>3</v>
@@ -4064,7 +4065,7 @@
     </row>
     <row r="7" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="31">
         <v>3</v>
@@ -4072,7 +4073,7 @@
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
       <c r="E7" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="31">
         <v>3</v>
@@ -4080,7 +4081,7 @@
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
       <c r="I7" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J7" s="31">
         <v>3</v>
@@ -4097,7 +4098,7 @@
     </row>
     <row r="8" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="31">
         <v>3</v>
@@ -4105,7 +4106,7 @@
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="31">
         <v>3</v>
@@ -4113,7 +4114,7 @@
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
       <c r="I8" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" s="31">
         <v>3</v>
@@ -4130,7 +4131,7 @@
     </row>
     <row r="9" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="31">
         <v>3</v>
@@ -4138,7 +4139,7 @@
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="31">
         <v>3</v>
@@ -4146,7 +4147,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J9" s="31">
         <v>1</v>
@@ -4163,7 +4164,7 @@
     </row>
     <row r="10" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="31">
         <v>3</v>
@@ -4171,7 +4172,7 @@
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
       <c r="E10" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="31">
         <v>3</v>
@@ -4179,7 +4180,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="31">
         <v>3</v>
@@ -4196,7 +4197,7 @@
     </row>
     <row r="11" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="31">
         <v>3</v>
@@ -4204,7 +4205,7 @@
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
       <c r="E11" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="31">
         <v>3</v>
@@ -4212,7 +4213,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J11" s="31">
         <v>3</v>
@@ -4229,7 +4230,7 @@
     </row>
     <row r="12" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="31">
         <v>3</v>
@@ -4237,7 +4238,7 @@
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
       <c r="E12" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="31">
         <v>3</v>
@@ -4245,7 +4246,7 @@
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J12" s="31">
         <v>3</v>
@@ -4262,7 +4263,7 @@
     </row>
     <row r="13" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="31">
         <v>1</v>
@@ -4270,7 +4271,7 @@
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="31">
         <v>3</v>
@@ -4278,7 +4279,7 @@
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J13" s="31">
         <v>3</v>
@@ -4295,7 +4296,7 @@
     </row>
     <row r="14" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="31">
         <v>3</v>
@@ -4303,7 +4304,7 @@
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="31">
         <v>3</v>
@@ -4311,7 +4312,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J14" s="31">
         <v>3</v>
@@ -4328,7 +4329,7 @@
     </row>
     <row r="15" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="31">
         <v>3</v>
@@ -4336,7 +4337,7 @@
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" s="31">
         <v>3</v>
@@ -4344,7 +4345,7 @@
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J15" s="31">
         <v>3</v>
@@ -4361,7 +4362,7 @@
     </row>
     <row r="16" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="31">
         <v>3</v>
@@ -4369,7 +4370,7 @@
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="31">
         <v>3</v>
@@ -4377,7 +4378,7 @@
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J16" s="31">
         <v>3</v>
@@ -4394,7 +4395,7 @@
     </row>
     <row r="17" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="31">
         <v>1</v>
@@ -4402,7 +4403,7 @@
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17" s="31">
         <v>3</v>
@@ -4410,7 +4411,7 @@
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J17" s="31">
         <v>3</v>
@@ -4427,7 +4428,7 @@
     </row>
     <row r="18" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="31">
         <v>3</v>
@@ -4435,7 +4436,7 @@
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
       <c r="E18" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" s="31">
         <v>3</v>
@@ -4443,7 +4444,7 @@
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J18" s="31">
         <v>3</v>
@@ -4460,7 +4461,7 @@
     </row>
     <row r="19" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="31">
         <v>3</v>
@@ -4468,7 +4469,7 @@
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="31">
         <v>3</v>
@@ -4476,7 +4477,7 @@
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J19" s="31">
         <v>3</v>
@@ -4493,7 +4494,7 @@
     </row>
     <row r="20" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="31">
         <v>3</v>
@@ -4501,7 +4502,7 @@
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" s="31">
         <v>3</v>
@@ -4509,7 +4510,7 @@
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J20" s="31">
         <v>3</v>
@@ -4526,7 +4527,7 @@
     </row>
     <row r="21" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" s="31">
         <v>1</v>
@@ -4534,7 +4535,7 @@
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" s="31">
         <v>3</v>
@@ -4542,7 +4543,7 @@
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J21" s="31">
         <v>3</v>
@@ -4559,7 +4560,7 @@
     </row>
     <row r="22" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22" s="31">
         <v>3</v>
@@ -4567,7 +4568,7 @@
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F22" s="31">
         <v>3</v>
@@ -4575,7 +4576,7 @@
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J22" s="31">
         <v>3</v>
@@ -4592,7 +4593,7 @@
     </row>
     <row r="23" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="31">
         <v>3</v>
@@ -4600,7 +4601,7 @@
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F23" s="31">
         <v>2</v>
@@ -4608,7 +4609,7 @@
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J23" s="31">
         <v>3</v>
@@ -4625,7 +4626,7 @@
     </row>
     <row r="24" spans="1:19" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="31">
         <v>3</v>
@@ -4633,7 +4634,7 @@
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F24" s="31">
         <v>2</v>
@@ -4641,7 +4642,7 @@
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J24" s="31">
         <v>3</v>
@@ -4658,7 +4659,7 @@
     </row>
     <row r="25" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B25" s="31">
         <v>3</v>
@@ -4666,7 +4667,7 @@
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F25" s="31">
         <v>3</v>
@@ -4674,7 +4675,7 @@
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J25" s="31">
         <v>3</v>
@@ -4691,7 +4692,7 @@
     </row>
     <row r="26" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" s="31">
         <v>3</v>
@@ -4699,7 +4700,7 @@
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F26" s="31">
         <v>3</v>
@@ -4707,7 +4708,7 @@
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J26" s="31">
         <v>3</v>
@@ -4724,7 +4725,7 @@
     </row>
     <row r="27" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" s="31">
         <v>3</v>
@@ -4732,7 +4733,7 @@
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F27" s="31">
         <v>3</v>
@@ -4740,7 +4741,7 @@
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J27" s="31">
         <v>3</v>
@@ -4757,7 +4758,7 @@
     </row>
     <row r="28" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" s="31">
         <v>3</v>
@@ -4765,7 +4766,7 @@
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F28" s="31">
         <v>3</v>
@@ -4773,7 +4774,7 @@
       <c r="G28" s="31"/>
       <c r="H28" s="31"/>
       <c r="I28" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J28" s="31">
         <v>3</v>
@@ -4790,7 +4791,7 @@
     </row>
     <row r="29" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B29" s="31">
         <v>3</v>
@@ -4798,7 +4799,7 @@
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
       <c r="E29" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F29" s="31">
         <v>3</v>
@@ -4806,7 +4807,7 @@
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J29" s="31">
         <v>1</v>
@@ -4823,7 +4824,7 @@
     </row>
     <row r="30" spans="1:19" s="39" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="31">
         <v>3</v>
@@ -4831,7 +4832,7 @@
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F30" s="31">
         <v>3</v>
@@ -4839,7 +4840,7 @@
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="I30" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J30" s="31">
         <v>1</v>
@@ -4967,7 +4968,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>2</v>
@@ -4979,7 +4980,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F1" s="50" t="s">
         <v>2</v>
@@ -4991,7 +4992,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J1" s="48" t="s">
         <v>2</v>
@@ -5003,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N1" s="48" t="s">
         <v>2</v>
@@ -5017,7 +5018,7 @@
     </row>
     <row r="2" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="52">
         <v>3</v>
@@ -5025,7 +5026,7 @@
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
       <c r="E2" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" s="54">
         <v>3</v>
@@ -5033,7 +5034,7 @@
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
       <c r="I2" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J2" s="52">
         <v>2</v>
@@ -5041,7 +5042,7 @@
       <c r="K2" s="53"/>
       <c r="L2" s="53"/>
       <c r="M2" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N2" s="52">
         <v>2</v>
@@ -5051,7 +5052,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="52">
         <v>2</v>
@@ -5059,7 +5060,7 @@
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
       <c r="E3" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F3" s="54">
         <v>2</v>
@@ -5067,7 +5068,7 @@
       <c r="G3" s="53"/>
       <c r="H3" s="53"/>
       <c r="I3" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J3" s="52">
         <v>2</v>
@@ -5075,7 +5076,7 @@
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
       <c r="M3" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N3" s="52">
         <v>2</v>
@@ -5085,7 +5086,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="52">
         <v>2</v>
@@ -5093,7 +5094,7 @@
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
       <c r="E4" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="54">
         <v>3</v>
@@ -5101,7 +5102,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J4" s="52">
         <v>3</v>
@@ -5109,7 +5110,7 @@
       <c r="K4" s="53"/>
       <c r="L4" s="53"/>
       <c r="M4" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N4" s="52">
         <v>2</v>
@@ -5119,7 +5120,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="52">
         <v>2</v>
@@ -5127,7 +5128,7 @@
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F5" s="54">
         <v>3</v>
@@ -5135,7 +5136,7 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J5" s="52">
         <v>3</v>
@@ -5143,7 +5144,7 @@
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
       <c r="M5" s="51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N5" s="52">
         <v>3</v>
@@ -5153,7 +5154,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="52">
         <v>2</v>
@@ -5161,7 +5162,7 @@
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
       <c r="E6" s="51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" s="54">
         <v>3</v>
@@ -5169,7 +5170,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J6" s="52">
         <v>3</v>
@@ -5177,7 +5178,7 @@
       <c r="K6" s="53"/>
       <c r="L6" s="53"/>
       <c r="M6" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N6" s="52">
         <v>3</v>
@@ -5187,7 +5188,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" s="52">
         <v>2</v>
@@ -5195,7 +5196,7 @@
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
       <c r="E7" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F7" s="54">
         <v>3</v>
@@ -5203,7 +5204,7 @@
       <c r="G7" s="53"/>
       <c r="H7" s="53"/>
       <c r="I7" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J7" s="52">
         <v>2</v>
@@ -5211,7 +5212,7 @@
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
       <c r="M7" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N7" s="52">
         <v>3</v>
@@ -5221,7 +5222,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" s="52">
         <v>2</v>
@@ -5229,7 +5230,7 @@
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
       <c r="E8" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" s="54">
         <v>2</v>
@@ -5237,7 +5238,7 @@
       <c r="G8" s="53"/>
       <c r="H8" s="53"/>
       <c r="I8" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J8" s="52">
         <v>2</v>
@@ -5245,7 +5246,7 @@
       <c r="K8" s="53"/>
       <c r="L8" s="53"/>
       <c r="M8" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N8" s="52">
         <v>3</v>
@@ -5255,7 +5256,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="52">
         <v>3</v>
@@ -5263,7 +5264,7 @@
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
       <c r="E9" s="51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F9" s="54">
         <v>3</v>
@@ -5271,7 +5272,7 @@
       <c r="G9" s="53"/>
       <c r="H9" s="53"/>
       <c r="I9" s="51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J9" s="52">
         <v>2</v>
@@ -5279,7 +5280,7 @@
       <c r="K9" s="53"/>
       <c r="L9" s="53"/>
       <c r="M9" s="51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N9" s="52">
         <v>3</v>
@@ -5289,7 +5290,7 @@
     </row>
     <row r="10" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" s="52">
         <v>2</v>
@@ -5297,7 +5298,7 @@
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
       <c r="E10" s="51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F10" s="54">
         <v>2</v>
@@ -5305,7 +5306,7 @@
       <c r="G10" s="53"/>
       <c r="H10" s="53"/>
       <c r="I10" s="51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J10" s="52">
         <v>2</v>
@@ -5313,17 +5314,17 @@
       <c r="K10" s="53"/>
       <c r="L10" s="53"/>
       <c r="M10" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="N10" s="52" t="s">
         <v>194</v>
-      </c>
-      <c r="N10" s="52" t="s">
-        <v>195</v>
       </c>
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="52">
         <v>2</v>
@@ -5331,7 +5332,7 @@
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
       <c r="E11" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F11" s="54">
         <v>2</v>
@@ -5339,7 +5340,7 @@
       <c r="G11" s="53"/>
       <c r="H11" s="53"/>
       <c r="I11" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J11" s="52">
         <v>2</v>
@@ -5347,7 +5348,7 @@
       <c r="K11" s="53"/>
       <c r="L11" s="53"/>
       <c r="M11" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N11" s="52">
         <v>2</v>
@@ -5357,7 +5358,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B12" s="52">
         <v>2</v>
@@ -5365,7 +5366,7 @@
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
       <c r="E12" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F12" s="54">
         <v>2</v>
@@ -5373,7 +5374,7 @@
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
       <c r="I12" s="51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J12" s="52">
         <v>2</v>
@@ -5381,7 +5382,7 @@
       <c r="K12" s="53"/>
       <c r="L12" s="53"/>
       <c r="M12" s="51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N12" s="52">
         <v>2</v>
@@ -5391,7 +5392,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B13" s="52">
         <v>2</v>
@@ -5399,7 +5400,7 @@
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
       <c r="E13" s="51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F13" s="54">
         <v>2</v>
@@ -5407,7 +5408,7 @@
       <c r="G13" s="53"/>
       <c r="H13" s="53"/>
       <c r="I13" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J13" s="52">
         <v>2</v>
@@ -5415,7 +5416,7 @@
       <c r="K13" s="53"/>
       <c r="L13" s="53"/>
       <c r="M13" s="51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N13" s="52">
         <v>2</v>
@@ -5425,7 +5426,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="52">
         <v>2</v>
@@ -5433,7 +5434,7 @@
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
       <c r="E14" s="51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F14" s="54">
         <v>2</v>
@@ -5441,7 +5442,7 @@
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
       <c r="I14" s="51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J14" s="52">
         <v>2</v>
@@ -5449,7 +5450,7 @@
       <c r="K14" s="53"/>
       <c r="L14" s="53"/>
       <c r="M14" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N14" s="52">
         <v>2</v>
@@ -5459,7 +5460,7 @@
     </row>
     <row r="15" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B15" s="52">
         <v>2</v>
@@ -5467,7 +5468,7 @@
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
       <c r="E15" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F15" s="54">
         <v>2</v>
@@ -5475,7 +5476,7 @@
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
       <c r="I15" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J15" s="52">
         <v>2</v>
@@ -5483,7 +5484,7 @@
       <c r="K15" s="53"/>
       <c r="L15" s="53"/>
       <c r="M15" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N15" s="52">
         <v>3</v>
@@ -5493,7 +5494,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B16" s="52">
         <v>2</v>
@@ -5501,7 +5502,7 @@
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F16" s="54">
         <v>2</v>
@@ -5509,7 +5510,7 @@
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J16" s="52">
         <v>3</v>
@@ -5517,7 +5518,7 @@
       <c r="K16" s="53"/>
       <c r="L16" s="53"/>
       <c r="M16" s="51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N16" s="52">
         <v>2</v>
@@ -5527,7 +5528,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B17" s="52">
         <v>3</v>
@@ -5535,7 +5536,7 @@
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
       <c r="E17" s="51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F17" s="54">
         <v>2</v>
@@ -5543,7 +5544,7 @@
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
       <c r="I17" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J17" s="52">
         <v>3</v>
@@ -5551,7 +5552,7 @@
       <c r="K17" s="53"/>
       <c r="L17" s="53"/>
       <c r="M17" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N17" s="52">
         <v>2</v>
@@ -5561,7 +5562,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18" s="52">
         <v>2</v>
@@ -5569,7 +5570,7 @@
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F18" s="54">
         <v>2</v>
@@ -5577,7 +5578,7 @@
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
       <c r="I18" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J18" s="52">
         <v>1</v>
@@ -5585,7 +5586,7 @@
       <c r="K18" s="53"/>
       <c r="L18" s="53"/>
       <c r="M18" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N18" s="52">
         <v>3</v>
@@ -5595,7 +5596,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B19" s="52">
         <v>1</v>
@@ -5603,7 +5604,7 @@
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F19" s="54">
         <v>1</v>
@@ -5611,7 +5612,7 @@
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
       <c r="I19" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J19" s="52">
         <v>2</v>
@@ -5619,7 +5620,7 @@
       <c r="K19" s="53"/>
       <c r="L19" s="53"/>
       <c r="M19" s="51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N19" s="52">
         <v>3</v>
@@ -5629,7 +5630,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B20" s="52">
         <v>3</v>
@@ -5637,7 +5638,7 @@
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F20" s="54">
         <v>3</v>
@@ -5645,7 +5646,7 @@
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
       <c r="I20" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J20" s="52">
         <v>3</v>
@@ -5653,7 +5654,7 @@
       <c r="K20" s="53"/>
       <c r="L20" s="53"/>
       <c r="M20" s="51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N20" s="52">
         <v>3</v>
@@ -5663,7 +5664,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" s="52">
         <v>2</v>
@@ -5671,7 +5672,7 @@
       <c r="C21" s="53"/>
       <c r="D21" s="53"/>
       <c r="E21" s="51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F21" s="54">
         <v>3</v>
@@ -5679,7 +5680,7 @@
       <c r="G21" s="53"/>
       <c r="H21" s="53"/>
       <c r="I21" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J21" s="52">
         <v>2</v>
@@ -5687,7 +5688,7 @@
       <c r="K21" s="53"/>
       <c r="L21" s="53"/>
       <c r="M21" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N21" s="52">
         <v>3</v>
@@ -5697,7 +5698,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B22" s="52">
         <v>2</v>
@@ -5705,7 +5706,7 @@
       <c r="C22" s="53"/>
       <c r="D22" s="53"/>
       <c r="E22" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F22" s="54">
         <v>2</v>
@@ -5713,7 +5714,7 @@
       <c r="G22" s="53"/>
       <c r="H22" s="53"/>
       <c r="I22" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J22" s="52">
         <v>3</v>
@@ -5721,7 +5722,7 @@
       <c r="K22" s="53"/>
       <c r="L22" s="53"/>
       <c r="M22" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N22" s="52">
         <v>3</v>
@@ -5731,7 +5732,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B23" s="52">
         <v>3</v>
@@ -5739,7 +5740,7 @@
       <c r="C23" s="53"/>
       <c r="D23" s="53"/>
       <c r="E23" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F23" s="54">
         <v>3</v>
@@ -5747,7 +5748,7 @@
       <c r="G23" s="53"/>
       <c r="H23" s="53"/>
       <c r="I23" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J23" s="52">
         <v>3</v>
@@ -5755,7 +5756,7 @@
       <c r="K23" s="53"/>
       <c r="L23" s="53"/>
       <c r="M23" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N23" s="52">
         <v>1</v>
@@ -5765,7 +5766,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B24" s="52">
         <v>2</v>
@@ -5773,7 +5774,7 @@
       <c r="C24" s="53"/>
       <c r="D24" s="53"/>
       <c r="E24" s="51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F24" s="54">
         <v>3</v>
@@ -5781,7 +5782,7 @@
       <c r="G24" s="53"/>
       <c r="H24" s="53"/>
       <c r="I24" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J24" s="52">
         <v>2</v>
@@ -5789,7 +5790,7 @@
       <c r="K24" s="53"/>
       <c r="L24" s="53"/>
       <c r="M24" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N24" s="52">
         <v>2</v>
@@ -5799,7 +5800,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" s="52">
         <v>2</v>
@@ -5807,7 +5808,7 @@
       <c r="C25" s="53"/>
       <c r="D25" s="53"/>
       <c r="E25" s="51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F25" s="54">
         <v>3</v>
@@ -5815,7 +5816,7 @@
       <c r="G25" s="53"/>
       <c r="H25" s="53"/>
       <c r="I25" s="51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J25" s="52">
         <v>3</v>
@@ -5823,7 +5824,7 @@
       <c r="K25" s="53"/>
       <c r="L25" s="53"/>
       <c r="M25" s="51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N25" s="52">
         <v>3</v>
@@ -5833,7 +5834,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" s="52">
         <v>2</v>
@@ -5841,7 +5842,7 @@
       <c r="C26" s="53"/>
       <c r="D26" s="53"/>
       <c r="E26" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F26" s="54">
         <v>2</v>
@@ -5849,7 +5850,7 @@
       <c r="G26" s="53"/>
       <c r="H26" s="53"/>
       <c r="I26" s="51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J26" s="52">
         <v>3</v>
@@ -5857,7 +5858,7 @@
       <c r="K26" s="53"/>
       <c r="L26" s="53"/>
       <c r="M26" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N26" s="52">
         <v>3</v>
@@ -5867,7 +5868,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B27" s="52">
         <v>2</v>
@@ -5875,7 +5876,7 @@
       <c r="C27" s="53"/>
       <c r="D27" s="53"/>
       <c r="E27" s="51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F27" s="54">
         <v>3</v>
@@ -5883,7 +5884,7 @@
       <c r="G27" s="53"/>
       <c r="H27" s="53"/>
       <c r="I27" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J27" s="52">
         <v>2</v>
@@ -5891,7 +5892,7 @@
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
       <c r="M27" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N27" s="52">
         <v>3</v>
@@ -5901,7 +5902,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B28" s="52">
         <v>2</v>
@@ -5909,7 +5910,7 @@
       <c r="C28" s="53"/>
       <c r="D28" s="53"/>
       <c r="E28" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F28" s="54">
         <v>2</v>
@@ -5917,7 +5918,7 @@
       <c r="G28" s="53"/>
       <c r="H28" s="53"/>
       <c r="I28" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J28" s="52">
         <v>2</v>
@@ -5925,7 +5926,7 @@
       <c r="K28" s="53"/>
       <c r="L28" s="53"/>
       <c r="M28" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N28" s="52">
         <v>2</v>
@@ -5935,7 +5936,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B29" s="52">
         <v>2</v>
@@ -5943,7 +5944,7 @@
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
       <c r="E29" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F29" s="54">
         <v>3</v>
@@ -5951,7 +5952,7 @@
       <c r="G29" s="53"/>
       <c r="H29" s="53"/>
       <c r="I29" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J29" s="52">
         <v>2</v>
@@ -5959,7 +5960,7 @@
       <c r="K29" s="53"/>
       <c r="L29" s="53"/>
       <c r="M29" s="51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N29" s="52">
         <v>3</v>
@@ -5969,7 +5970,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B30" s="52">
         <v>3</v>
@@ -5977,7 +5978,7 @@
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
       <c r="E30" s="51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F30" s="54">
         <v>3</v>
@@ -5985,7 +5986,7 @@
       <c r="G30" s="53"/>
       <c r="H30" s="53"/>
       <c r="I30" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J30" s="52">
         <v>2</v>
@@ -5993,7 +5994,7 @@
       <c r="K30" s="53"/>
       <c r="L30" s="53"/>
       <c r="M30" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N30" s="52">
         <v>3</v>
@@ -6003,7 +6004,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" s="52">
         <v>3</v>
@@ -6011,7 +6012,7 @@
       <c r="C31" s="53"/>
       <c r="D31" s="53"/>
       <c r="E31" s="51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F31" s="54">
         <v>3</v>
@@ -6019,7 +6020,7 @@
       <c r="G31" s="53"/>
       <c r="H31" s="53"/>
       <c r="I31" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J31" s="52">
         <v>2</v>
@@ -6027,7 +6028,7 @@
       <c r="K31" s="53"/>
       <c r="L31" s="53"/>
       <c r="M31" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N31" s="52">
         <v>3</v>
@@ -6037,7 +6038,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B32" s="52">
         <v>3</v>
@@ -6045,7 +6046,7 @@
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
       <c r="E32" s="51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F32" s="54">
         <v>2</v>
@@ -6053,7 +6054,7 @@
       <c r="G32" s="53"/>
       <c r="H32" s="53"/>
       <c r="I32" s="51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J32" s="52">
         <v>2</v>
@@ -6061,7 +6062,7 @@
       <c r="K32" s="53"/>
       <c r="L32" s="53"/>
       <c r="M32" s="51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N32" s="52">
         <v>2</v>
@@ -6071,7 +6072,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B33" s="52">
         <v>3</v>
@@ -6079,7 +6080,7 @@
       <c r="C33" s="53"/>
       <c r="D33" s="53"/>
       <c r="E33" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F33" s="54">
         <v>3</v>
@@ -6087,7 +6088,7 @@
       <c r="G33" s="53"/>
       <c r="H33" s="53"/>
       <c r="I33" s="51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J33" s="52">
         <v>3</v>
@@ -6095,7 +6096,7 @@
       <c r="K33" s="53"/>
       <c r="L33" s="53"/>
       <c r="M33" s="51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N33" s="52">
         <v>3</v>
@@ -6105,7 +6106,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B34" s="52">
         <v>3</v>
@@ -6113,7 +6114,7 @@
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
       <c r="E34" s="51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F34" s="54">
         <v>3</v>
@@ -6121,7 +6122,7 @@
       <c r="G34" s="53"/>
       <c r="H34" s="53"/>
       <c r="I34" s="51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J34" s="52">
         <v>3</v>
@@ -6129,7 +6130,7 @@
       <c r="K34" s="53"/>
       <c r="L34" s="53"/>
       <c r="M34" s="51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N34" s="52">
         <v>3</v>
@@ -6139,7 +6140,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B35" s="52">
         <v>3</v>
@@ -6147,7 +6148,7 @@
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
       <c r="E35" s="51" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F35" s="54">
         <v>3</v>
@@ -6155,7 +6156,7 @@
       <c r="G35" s="53"/>
       <c r="H35" s="53"/>
       <c r="I35" s="51" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J35" s="52">
         <v>3</v>
@@ -6163,7 +6164,7 @@
       <c r="K35" s="53"/>
       <c r="L35" s="53"/>
       <c r="M35" s="51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N35" s="52">
         <v>2</v>
@@ -6173,7 +6174,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B36" s="52">
         <v>3</v>
@@ -6181,7 +6182,7 @@
       <c r="C36" s="53"/>
       <c r="D36" s="53"/>
       <c r="E36" s="51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F36" s="54">
         <v>1</v>
@@ -6189,7 +6190,7 @@
       <c r="G36" s="53"/>
       <c r="H36" s="53"/>
       <c r="I36" s="51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J36" s="52">
         <v>3</v>
@@ -6197,7 +6198,7 @@
       <c r="K36" s="53"/>
       <c r="L36" s="53"/>
       <c r="M36" s="51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N36" s="52">
         <v>3</v>
@@ -6207,7 +6208,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B37" s="52">
         <v>3</v>
@@ -6215,7 +6216,7 @@
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
       <c r="E37" s="51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F37" s="54">
         <v>2</v>
@@ -6223,7 +6224,7 @@
       <c r="G37" s="53"/>
       <c r="H37" s="53"/>
       <c r="I37" s="51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J37" s="52">
         <v>2</v>
@@ -6231,7 +6232,7 @@
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
       <c r="M37" s="51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N37" s="52">
         <v>3</v>
@@ -6241,7 +6242,7 @@
     </row>
     <row r="38" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A38" s="51" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B38" s="52">
         <v>3</v>
@@ -6249,7 +6250,7 @@
       <c r="C38" s="53"/>
       <c r="D38" s="53"/>
       <c r="E38" s="51" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F38" s="54">
         <v>3</v>
@@ -6257,7 +6258,7 @@
       <c r="G38" s="53"/>
       <c r="H38" s="53"/>
       <c r="I38" s="51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J38" s="52">
         <v>2</v>
@@ -6265,7 +6266,7 @@
       <c r="K38" s="53"/>
       <c r="L38" s="53"/>
       <c r="M38" s="51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N38" s="52">
         <v>3</v>
@@ -6275,7 +6276,7 @@
     </row>
     <row r="39" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A39" s="51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B39" s="52">
         <v>2</v>
@@ -6283,7 +6284,7 @@
       <c r="C39" s="53"/>
       <c r="D39" s="53"/>
       <c r="E39" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F39" s="54">
         <v>3</v>
@@ -6291,7 +6292,7 @@
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
       <c r="I39" s="51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J39" s="52">
         <v>3</v>
@@ -6299,7 +6300,7 @@
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
       <c r="M39" s="51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N39" s="52">
         <v>2</v>
@@ -6309,7 +6310,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A40" s="51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B40" s="52">
         <v>2</v>
@@ -6317,7 +6318,7 @@
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
       <c r="E40" s="51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F40" s="54">
         <v>3</v>
@@ -6325,7 +6326,7 @@
       <c r="G40" s="53"/>
       <c r="H40" s="53"/>
       <c r="I40" s="55" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J40" s="56">
         <v>2</v>
@@ -6333,7 +6334,7 @@
       <c r="K40" s="57"/>
       <c r="L40" s="57"/>
       <c r="M40" s="51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N40" s="52">
         <v>3</v>
@@ -6343,7 +6344,7 @@
     </row>
     <row r="41" spans="1:16" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B41" s="52">
         <v>2</v>
@@ -6351,7 +6352,7 @@
       <c r="C41" s="53"/>
       <c r="D41" s="58"/>
       <c r="E41" s="51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F41" s="54">
         <v>2</v>
@@ -6359,7 +6360,7 @@
       <c r="G41" s="53"/>
       <c r="H41" s="53"/>
       <c r="I41" s="59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J41" s="60">
         <v>3</v>
@@ -6367,7 +6368,7 @@
       <c r="K41" s="57"/>
       <c r="L41" s="57"/>
       <c r="M41" s="51" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N41" s="52">
         <v>2</v>
@@ -6377,7 +6378,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B42" s="52">
         <v>2</v>
@@ -6385,7 +6386,7 @@
       <c r="C42" s="53"/>
       <c r="D42" s="58"/>
       <c r="E42" s="51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F42" s="54">
         <v>2</v>
@@ -6395,7 +6396,7 @@
       <c r="K42" s="44"/>
       <c r="L42" s="44"/>
       <c r="M42" s="51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N42" s="52">
         <v>3</v>
@@ -6405,7 +6406,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A43" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B43" s="52">
         <v>3</v>
@@ -6413,7 +6414,7 @@
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
       <c r="E43" s="59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F43" s="61">
         <v>3</v>
@@ -6424,7 +6425,7 @@
       <c r="K43" s="44"/>
       <c r="L43" s="44"/>
       <c r="M43" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N43" s="52">
         <v>3</v>
@@ -6434,7 +6435,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A44" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B44" s="52">
         <v>3</v>
@@ -6442,7 +6443,7 @@
       <c r="C44" s="53"/>
       <c r="D44" s="53"/>
       <c r="E44" s="62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F44" s="61">
         <v>3</v>
@@ -6453,7 +6454,7 @@
       <c r="K44" s="44"/>
       <c r="L44" s="44"/>
       <c r="M44" s="51" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N44" s="52">
         <v>2</v>
@@ -6463,7 +6464,7 @@
     </row>
     <row r="45" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B45" s="52">
         <v>3</v>
@@ -6471,7 +6472,7 @@
       <c r="C45" s="53"/>
       <c r="D45" s="53"/>
       <c r="E45" s="62" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F45" s="63">
         <v>2</v>
@@ -6483,7 +6484,7 @@
       <c r="K45" s="64"/>
       <c r="L45" s="44"/>
       <c r="M45" s="51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N45" s="52">
         <v>3</v>
@@ -6493,7 +6494,7 @@
     </row>
     <row r="46" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B46" s="52">
         <v>3</v>
@@ -6501,7 +6502,7 @@
       <c r="C46" s="65"/>
       <c r="D46" s="65"/>
       <c r="E46" s="62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F46" s="63">
         <v>2</v>
@@ -6513,7 +6514,7 @@
       <c r="K46" s="64"/>
       <c r="L46" s="44"/>
       <c r="M46" s="51" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N46" s="52">
         <v>3</v>
@@ -6523,7 +6524,7 @@
     </row>
     <row r="47" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="51" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B47" s="52">
         <v>3</v>
@@ -6531,7 +6532,7 @@
       <c r="C47" s="65"/>
       <c r="D47" s="65"/>
       <c r="E47" s="62" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F47" s="63">
         <v>2</v>
@@ -6543,7 +6544,7 @@
       <c r="K47" s="64"/>
       <c r="L47" s="66"/>
       <c r="M47" s="51" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N47" s="52">
         <v>2</v>
@@ -6553,7 +6554,7 @@
     </row>
     <row r="48" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B48" s="52">
         <v>3</v>
@@ -6561,7 +6562,7 @@
       <c r="C48" s="65"/>
       <c r="D48" s="65"/>
       <c r="E48" s="62" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F48" s="67">
         <v>3</v>
@@ -6573,7 +6574,7 @@
       <c r="K48" s="64"/>
       <c r="L48" s="66"/>
       <c r="M48" s="51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N48" s="52">
         <v>2</v>
@@ -6583,7 +6584,7 @@
     </row>
     <row r="49" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="51" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B49" s="52">
         <v>3</v>
@@ -6591,7 +6592,7 @@
       <c r="C49" s="65"/>
       <c r="D49" s="65"/>
       <c r="E49" s="59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F49" s="67">
         <v>3</v>
@@ -6603,7 +6604,7 @@
       <c r="K49" s="64"/>
       <c r="L49" s="66"/>
       <c r="M49" s="51" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N49" s="52">
         <v>3</v>
@@ -6613,7 +6614,7 @@
     </row>
     <row r="50" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B50" s="52">
         <v>3</v>
@@ -6627,7 +6628,7 @@
       <c r="J50" s="64"/>
       <c r="K50" s="64"/>
       <c r="M50" s="51" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N50" s="52">
         <v>2</v>
@@ -6637,7 +6638,7 @@
     </row>
     <row r="51" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B51" s="52">
         <v>3</v>
@@ -6651,7 +6652,7 @@
       <c r="J51" s="64"/>
       <c r="K51" s="64"/>
       <c r="M51" s="59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N51" s="61">
         <v>2</v>
@@ -6662,7 +6663,7 @@
     </row>
     <row r="52" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="51" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B52" s="52">
         <v>3</v>
@@ -6676,7 +6677,7 @@
       <c r="J52" s="64"/>
       <c r="K52" s="64"/>
       <c r="M52" s="59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N52" s="61">
         <v>2</v>
@@ -6687,7 +6688,7 @@
     </row>
     <row r="53" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="51" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B53" s="52">
         <v>3</v>
@@ -6702,7 +6703,7 @@
       <c r="J53" s="64"/>
       <c r="K53" s="64"/>
       <c r="M53" s="59" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N53" s="61">
         <v>2</v>
@@ -6713,7 +6714,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A54" s="69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B54" s="56">
         <v>3</v>
@@ -6721,7 +6722,7 @@
       <c r="C54" s="69"/>
       <c r="D54" s="69"/>
       <c r="M54" s="59" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N54" s="61">
         <v>3</v>
@@ -6732,7 +6733,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A55" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B55" s="56">
         <v>2</v>
@@ -6742,7 +6743,7 @@
       <c r="F55" s="43"/>
       <c r="G55" s="44"/>
       <c r="M55" s="59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N55" s="67">
         <v>3</v>
@@ -6753,133 +6754,133 @@
     </row>
     <row r="56" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" s="69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B56" s="56">
         <v>3</v>
       </c>
       <c r="C56" s="69"/>
       <c r="D56" s="69"/>
-      <c r="F56" s="79" t="s">
-        <v>356</v>
-      </c>
-      <c r="G56" s="79"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
+      <c r="F56" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="81"/>
       <c r="L56" s="44"/>
       <c r="N56" s="70"/>
       <c r="R56" s="44"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A57" s="69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B57" s="56">
         <v>2</v>
       </c>
       <c r="C57" s="69"/>
       <c r="D57" s="69"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="81"/>
       <c r="L57" s="44"/>
       <c r="N57" s="70"/>
       <c r="R57" s="44"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A58" s="69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B58" s="56">
         <v>2</v>
       </c>
       <c r="C58" s="69"/>
       <c r="D58" s="69"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="81"/>
       <c r="L58" s="44"/>
       <c r="N58" s="70"/>
       <c r="R58" s="44"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A59" s="59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B59" s="56">
         <v>3</v>
       </c>
       <c r="C59" s="65"/>
       <c r="D59" s="57"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="81"/>
       <c r="L59" s="44"/>
       <c r="N59" s="70"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.5">
       <c r="D60" s="44"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="81"/>
       <c r="L60" s="44"/>
       <c r="N60" s="70"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.5">
       <c r="D61" s="44"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="81"/>
+      <c r="K61" s="81"/>
       <c r="L61" s="44"/>
       <c r="N61" s="70"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.5">
       <c r="D62" s="44"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="79"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="81"/>
+      <c r="J62" s="81"/>
+      <c r="K62" s="81"/>
       <c r="L62" s="44"/>
       <c r="N62" s="70"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.5">
       <c r="D63" s="44"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="79"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="81"/>
+      <c r="J63" s="81"/>
+      <c r="K63" s="81"/>
       <c r="L63" s="44"/>
       <c r="N63" s="70"/>
     </row>
     <row r="64" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D64" s="44"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="79"/>
-      <c r="J64" s="79"/>
-      <c r="K64" s="79"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="81"/>
+      <c r="I64" s="81"/>
+      <c r="J64" s="81"/>
+      <c r="K64" s="81"/>
       <c r="L64" s="44"/>
       <c r="N64" s="70"/>
     </row>
@@ -6983,7 +6984,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B1" s="72" t="s">
         <v>2</v>
@@ -6995,7 +6996,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F1" s="72" t="s">
         <v>2</v>
@@ -7007,7 +7008,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J1" s="72" t="s">
         <v>2</v>
@@ -7019,7 +7020,7 @@
         <v>4</v>
       </c>
       <c r="M1" s="73" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N1" s="72" t="s">
         <v>2</v>
@@ -7033,7 +7034,7 @@
     </row>
     <row r="2" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B2" s="53">
         <v>2</v>
@@ -7041,7 +7042,7 @@
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
       <c r="E2" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F2" s="53">
         <v>2</v>
@@ -7049,7 +7050,7 @@
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J2" s="53">
         <v>2</v>
@@ -7057,7 +7058,7 @@
       <c r="K2" s="53"/>
       <c r="L2" s="53"/>
       <c r="M2" s="74" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N2" s="53">
         <v>3</v>
@@ -7067,7 +7068,7 @@
     </row>
     <row r="3" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B3" s="53">
         <v>2</v>
@@ -7075,7 +7076,7 @@
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
       <c r="E3" s="53" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F3" s="53">
         <v>2</v>
@@ -7083,7 +7084,7 @@
       <c r="G3" s="53"/>
       <c r="H3" s="53"/>
       <c r="I3" s="53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J3" s="53">
         <v>2</v>
@@ -7091,7 +7092,7 @@
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
       <c r="M3" s="74" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N3" s="53">
         <v>3</v>
@@ -7101,7 +7102,7 @@
     </row>
     <row r="4" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B4" s="53">
         <v>2</v>
@@ -7109,7 +7110,7 @@
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
       <c r="E4" s="53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F4" s="53">
         <v>3</v>
@@ -7117,7 +7118,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J4" s="53">
         <v>3</v>
@@ -7125,7 +7126,7 @@
       <c r="K4" s="53"/>
       <c r="L4" s="53"/>
       <c r="M4" s="74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N4" s="53">
         <v>3</v>
@@ -7135,7 +7136,7 @@
     </row>
     <row r="5" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B5" s="53">
         <v>3</v>
@@ -7143,7 +7144,7 @@
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F5" s="53">
         <v>2</v>
@@ -7151,7 +7152,7 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J5" s="53">
         <v>3</v>
@@ -7159,7 +7160,7 @@
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
       <c r="M5" s="74" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N5" s="53">
         <v>3</v>
@@ -7169,7 +7170,7 @@
     </row>
     <row r="6" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B6" s="53">
         <v>3</v>
@@ -7177,7 +7178,7 @@
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
       <c r="E6" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F6" s="53">
         <v>2</v>
@@ -7185,7 +7186,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J6" s="53">
         <v>2</v>
@@ -7193,7 +7194,7 @@
       <c r="K6" s="53"/>
       <c r="L6" s="53"/>
       <c r="M6" s="74" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N6" s="53">
         <v>2</v>
@@ -7203,7 +7204,7 @@
     </row>
     <row r="7" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A7" s="53" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B7" s="53">
         <v>3</v>
@@ -7211,7 +7212,7 @@
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
       <c r="E7" s="53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F7" s="53">
         <v>2</v>
@@ -7219,7 +7220,7 @@
       <c r="G7" s="53"/>
       <c r="H7" s="53"/>
       <c r="I7" s="53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J7" s="53">
         <v>3</v>
@@ -7227,7 +7228,7 @@
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
       <c r="M7" s="74" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N7" s="53">
         <v>3</v>
@@ -7237,7 +7238,7 @@
     </row>
     <row r="8" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A8" s="53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B8" s="53">
         <v>2</v>
@@ -7245,7 +7246,7 @@
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
       <c r="E8" s="53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F8" s="53">
         <v>2</v>
@@ -7253,7 +7254,7 @@
       <c r="G8" s="53"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J8" s="53">
         <v>2</v>
@@ -7261,7 +7262,7 @@
       <c r="K8" s="53"/>
       <c r="L8" s="53"/>
       <c r="M8" s="74" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N8" s="53">
         <v>1</v>
@@ -7271,7 +7272,7 @@
     </row>
     <row r="9" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B9" s="53">
         <v>2</v>
@@ -7279,7 +7280,7 @@
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
       <c r="E9" s="53" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F9" s="53">
         <v>2</v>
@@ -7287,7 +7288,7 @@
       <c r="G9" s="53"/>
       <c r="H9" s="53"/>
       <c r="I9" s="53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J9" s="53">
         <v>2</v>
@@ -7295,7 +7296,7 @@
       <c r="K9" s="53"/>
       <c r="L9" s="53"/>
       <c r="M9" s="74" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N9" s="53">
         <v>3</v>
@@ -7305,7 +7306,7 @@
     </row>
     <row r="10" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B10" s="53">
         <v>3</v>
@@ -7313,7 +7314,7 @@
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
       <c r="E10" s="53" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F10" s="53">
         <v>2</v>
@@ -7321,7 +7322,7 @@
       <c r="G10" s="53"/>
       <c r="H10" s="53"/>
       <c r="I10" s="53" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J10" s="53">
         <v>3</v>
@@ -7329,7 +7330,7 @@
       <c r="K10" s="53"/>
       <c r="L10" s="53"/>
       <c r="M10" s="74" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N10" s="53">
         <v>3</v>
@@ -7339,7 +7340,7 @@
     </row>
     <row r="11" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B11" s="53">
         <v>2</v>
@@ -7347,7 +7348,7 @@
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
       <c r="E11" s="53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F11" s="53">
         <v>2</v>
@@ -7355,7 +7356,7 @@
       <c r="G11" s="53"/>
       <c r="H11" s="53"/>
       <c r="I11" s="53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J11" s="53">
         <v>3</v>
@@ -7363,7 +7364,7 @@
       <c r="K11" s="53"/>
       <c r="L11" s="53"/>
       <c r="M11" s="74" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N11" s="53">
         <v>3</v>
@@ -7373,7 +7374,7 @@
     </row>
     <row r="12" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B12" s="53">
         <v>2</v>
@@ -7381,7 +7382,7 @@
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
       <c r="E12" s="53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F12" s="53">
         <v>2</v>
@@ -7389,7 +7390,7 @@
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
       <c r="I12" s="53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J12" s="53">
         <v>3</v>
@@ -7397,7 +7398,7 @@
       <c r="K12" s="53"/>
       <c r="L12" s="53"/>
       <c r="M12" s="74" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N12" s="53">
         <v>2</v>
@@ -7407,7 +7408,7 @@
     </row>
     <row r="13" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A13" s="53" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B13" s="53">
         <v>2</v>
@@ -7415,7 +7416,7 @@
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
       <c r="E13" s="53" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F13" s="53">
         <v>2</v>
@@ -7423,7 +7424,7 @@
       <c r="G13" s="53"/>
       <c r="H13" s="53"/>
       <c r="I13" s="53" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J13" s="53">
         <v>2</v>
@@ -7431,7 +7432,7 @@
       <c r="K13" s="53"/>
       <c r="L13" s="53"/>
       <c r="M13" s="74" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N13" s="53">
         <v>6</v>
@@ -7441,7 +7442,7 @@
     </row>
     <row r="14" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B14" s="53">
         <v>3</v>
@@ -7449,7 +7450,7 @@
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
       <c r="E14" s="53" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F14" s="53">
         <v>3</v>
@@ -7457,7 +7458,7 @@
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
       <c r="I14" s="53" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J14" s="53">
         <v>2</v>
@@ -7465,7 +7466,7 @@
       <c r="K14" s="53"/>
       <c r="L14" s="53"/>
       <c r="M14" s="74" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N14" s="53">
         <v>2</v>
@@ -7475,7 +7476,7 @@
     </row>
     <row r="15" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A15" s="53" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B15" s="53">
         <v>3</v>
@@ -7483,7 +7484,7 @@
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
       <c r="E15" s="53" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F15" s="53">
         <v>1</v>
@@ -7491,7 +7492,7 @@
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
       <c r="I15" s="53" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J15" s="53">
         <v>2</v>
@@ -7499,7 +7500,7 @@
       <c r="K15" s="53"/>
       <c r="L15" s="53"/>
       <c r="M15" s="74" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N15" s="53">
         <v>6</v>
@@ -7509,7 +7510,7 @@
     </row>
     <row r="16" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B16" s="53">
         <v>3</v>
@@ -7517,7 +7518,7 @@
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="53" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F16" s="53">
         <v>3</v>
@@ -7525,7 +7526,7 @@
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J16" s="53">
         <v>2</v>
@@ -7533,7 +7534,7 @@
       <c r="K16" s="53"/>
       <c r="L16" s="53"/>
       <c r="M16" s="74" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N16" s="53">
         <v>1</v>
@@ -7543,7 +7544,7 @@
     </row>
     <row r="17" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A17" s="53" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B17" s="53">
         <v>2</v>
@@ -7551,7 +7552,7 @@
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
       <c r="E17" s="53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F17" s="53">
         <v>3</v>
@@ -7559,7 +7560,7 @@
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
       <c r="I17" s="53" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J17" s="53">
         <v>3</v>
@@ -7567,7 +7568,7 @@
       <c r="K17" s="53"/>
       <c r="L17" s="53"/>
       <c r="M17" s="74" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N17" s="53">
         <v>3</v>
@@ -7577,7 +7578,7 @@
     </row>
     <row r="18" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B18" s="53">
         <v>3</v>
@@ -7585,7 +7586,7 @@
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="53" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F18" s="53">
         <v>3</v>
@@ -7593,7 +7594,7 @@
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
       <c r="I18" s="53" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J18" s="53">
         <v>3</v>
@@ -7601,7 +7602,7 @@
       <c r="K18" s="53"/>
       <c r="L18" s="53"/>
       <c r="M18" s="74" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N18" s="53">
         <v>3</v>
@@ -7611,7 +7612,7 @@
     </row>
     <row r="19" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A19" s="53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B19" s="53">
         <v>3</v>
@@ -7619,7 +7620,7 @@
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="53" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F19" s="53">
         <v>3</v>
@@ -7627,7 +7628,7 @@
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
       <c r="I19" s="53" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J19" s="53">
         <v>3</v>
@@ -7635,17 +7636,17 @@
       <c r="K19" s="53"/>
       <c r="L19" s="53"/>
       <c r="M19" s="74" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N19" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O19" s="53"/>
       <c r="P19" s="53"/>
     </row>
     <row r="20" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A20" s="53" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B20" s="53">
         <v>3</v>
@@ -7653,7 +7654,7 @@
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="53" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F20" s="53">
         <v>3</v>
@@ -7661,7 +7662,7 @@
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
       <c r="I20" s="53" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J20" s="53">
         <v>3</v>
@@ -7669,7 +7670,7 @@
       <c r="K20" s="53"/>
       <c r="L20" s="53"/>
       <c r="M20" s="74" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N20" s="53">
         <v>1</v>
@@ -7679,7 +7680,7 @@
     </row>
     <row r="21" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A21" s="53" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B21" s="53">
         <v>3</v>
@@ -7687,7 +7688,7 @@
       <c r="C21" s="53"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F21" s="53">
         <v>3</v>
@@ -7695,7 +7696,7 @@
       <c r="G21" s="53"/>
       <c r="H21" s="53"/>
       <c r="I21" s="53" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J21" s="53">
         <v>3</v>
@@ -7703,7 +7704,7 @@
       <c r="K21" s="53"/>
       <c r="L21" s="53"/>
       <c r="M21" s="74" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N21" s="53">
         <v>3</v>
@@ -7713,7 +7714,7 @@
     </row>
     <row r="22" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A22" s="53" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B22" s="53">
         <v>3</v>
@@ -7721,7 +7722,7 @@
       <c r="C22" s="53"/>
       <c r="D22" s="53"/>
       <c r="E22" s="53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F22" s="53">
         <v>2</v>
@@ -7729,7 +7730,7 @@
       <c r="G22" s="53"/>
       <c r="H22" s="53"/>
       <c r="I22" s="53" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J22" s="53">
         <v>2</v>
@@ -7737,7 +7738,7 @@
       <c r="K22" s="53"/>
       <c r="L22" s="53"/>
       <c r="M22" s="74" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N22" s="53">
         <v>2</v>
@@ -7747,7 +7748,7 @@
     </row>
     <row r="23" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A23" s="53" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B23" s="53">
         <v>3</v>
@@ -7755,7 +7756,7 @@
       <c r="C23" s="53"/>
       <c r="D23" s="53"/>
       <c r="E23" s="53" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F23" s="53">
         <v>2</v>
@@ -7763,7 +7764,7 @@
       <c r="G23" s="53"/>
       <c r="H23" s="53"/>
       <c r="I23" s="53" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J23" s="53">
         <v>3</v>
@@ -7771,7 +7772,7 @@
       <c r="K23" s="53"/>
       <c r="L23" s="53"/>
       <c r="M23" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N23" s="53">
         <v>3</v>
@@ -7781,7 +7782,7 @@
     </row>
     <row r="24" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A24" s="53" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B24" s="53">
         <v>2</v>
@@ -7789,7 +7790,7 @@
       <c r="C24" s="53"/>
       <c r="D24" s="53"/>
       <c r="E24" s="53" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F24" s="53">
         <v>1</v>
@@ -7797,7 +7798,7 @@
       <c r="G24" s="53"/>
       <c r="H24" s="53"/>
       <c r="I24" s="53" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J24" s="53">
         <v>2</v>
@@ -7805,7 +7806,7 @@
       <c r="K24" s="53"/>
       <c r="L24" s="53"/>
       <c r="M24" s="74" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N24" s="53">
         <v>2</v>
@@ -7815,7 +7816,7 @@
     </row>
     <row r="25" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A25" s="53" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B25" s="53">
         <v>3</v>
@@ -7823,7 +7824,7 @@
       <c r="C25" s="53"/>
       <c r="D25" s="53"/>
       <c r="E25" s="53" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F25" s="53">
         <v>3</v>
@@ -7831,7 +7832,7 @@
       <c r="G25" s="53"/>
       <c r="H25" s="53"/>
       <c r="I25" s="53" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J25" s="53">
         <v>2</v>
@@ -7839,7 +7840,7 @@
       <c r="K25" s="53"/>
       <c r="L25" s="53"/>
       <c r="M25" s="74" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N25" s="53">
         <v>1</v>
@@ -7849,7 +7850,7 @@
     </row>
     <row r="26" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A26" s="53" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B26" s="53">
         <v>3</v>
@@ -7857,7 +7858,7 @@
       <c r="C26" s="53"/>
       <c r="D26" s="53"/>
       <c r="E26" s="53" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F26" s="53">
         <v>3</v>
@@ -7865,7 +7866,7 @@
       <c r="G26" s="53"/>
       <c r="H26" s="53"/>
       <c r="I26" s="53" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J26" s="53">
         <v>3</v>
@@ -7873,7 +7874,7 @@
       <c r="K26" s="53"/>
       <c r="L26" s="53"/>
       <c r="M26" s="74" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N26" s="53">
         <v>3</v>
@@ -7883,7 +7884,7 @@
     </row>
     <row r="27" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A27" s="53" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B27" s="53">
         <v>2</v>
@@ -7891,7 +7892,7 @@
       <c r="C27" s="53"/>
       <c r="D27" s="53"/>
       <c r="E27" s="53" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F27" s="53">
         <v>2</v>
@@ -7899,7 +7900,7 @@
       <c r="G27" s="53"/>
       <c r="H27" s="53"/>
       <c r="I27" s="53" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J27" s="53">
         <v>2</v>
@@ -7907,7 +7908,7 @@
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
       <c r="M27" s="74" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N27" s="53">
         <v>1</v>
@@ -7917,7 +7918,7 @@
     </row>
     <row r="28" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A28" s="53" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B28" s="53">
         <v>3</v>
@@ -7925,7 +7926,7 @@
       <c r="C28" s="53"/>
       <c r="D28" s="53"/>
       <c r="E28" s="53" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F28" s="53">
         <v>2</v>
@@ -7933,7 +7934,7 @@
       <c r="G28" s="53"/>
       <c r="H28" s="53"/>
       <c r="I28" s="53" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J28" s="53">
         <v>3</v>
@@ -7941,7 +7942,7 @@
       <c r="K28" s="53"/>
       <c r="L28" s="53"/>
       <c r="M28" s="74" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N28" s="53">
         <v>1</v>
@@ -7951,7 +7952,7 @@
     </row>
     <row r="29" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A29" s="53" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B29" s="53">
         <v>3</v>
@@ -7959,7 +7960,7 @@
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
       <c r="E29" s="53" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F29" s="53">
         <v>2</v>
@@ -7967,7 +7968,7 @@
       <c r="G29" s="53"/>
       <c r="H29" s="53"/>
       <c r="I29" s="53" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J29" s="53">
         <v>3</v>
@@ -7975,7 +7976,7 @@
       <c r="K29" s="53"/>
       <c r="L29" s="53"/>
       <c r="M29" s="74" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N29" s="53">
         <v>1</v>
@@ -7985,7 +7986,7 @@
     </row>
     <row r="30" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A30" s="53" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B30" s="53">
         <v>3</v>
@@ -7993,7 +7994,7 @@
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
       <c r="E30" s="53" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F30" s="53">
         <v>3</v>
@@ -8001,7 +8002,7 @@
       <c r="G30" s="53"/>
       <c r="H30" s="53"/>
       <c r="I30" s="53" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J30" s="53">
         <v>3</v>
@@ -8009,7 +8010,7 @@
       <c r="K30" s="53"/>
       <c r="L30" s="53"/>
       <c r="M30" s="74" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N30" s="53">
         <v>3</v>
@@ -8019,7 +8020,7 @@
     </row>
     <row r="31" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A31" s="53" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B31" s="53">
         <v>3</v>
@@ -8027,7 +8028,7 @@
       <c r="C31" s="65"/>
       <c r="D31" s="65"/>
       <c r="E31" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F31" s="53">
         <v>2</v>
@@ -8035,7 +8036,7 @@
       <c r="G31" s="53"/>
       <c r="H31" s="53"/>
       <c r="I31" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J31" s="53">
         <v>3</v>
@@ -8043,7 +8044,7 @@
       <c r="K31" s="53"/>
       <c r="L31" s="53"/>
       <c r="M31" s="74" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N31" s="53">
         <v>3</v>
@@ -8053,7 +8054,7 @@
     </row>
     <row r="32" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A32" s="53" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B32" s="53">
         <v>3</v>
@@ -8061,7 +8062,7 @@
       <c r="C32" s="65"/>
       <c r="D32" s="65"/>
       <c r="E32" s="53" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F32" s="53">
         <v>2</v>
@@ -8069,7 +8070,7 @@
       <c r="G32" s="53"/>
       <c r="H32" s="53"/>
       <c r="I32" s="53" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J32" s="53">
         <v>2</v>
@@ -8077,7 +8078,7 @@
       <c r="K32" s="53"/>
       <c r="L32" s="53"/>
       <c r="M32" s="74" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N32" s="53">
         <v>3</v>
@@ -8087,7 +8088,7 @@
     </row>
     <row r="33" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A33" s="53" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B33" s="53">
         <v>2</v>
@@ -8095,7 +8096,7 @@
       <c r="C33" s="65"/>
       <c r="D33" s="65"/>
       <c r="E33" s="53" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F33" s="53">
         <v>3</v>
@@ -8103,7 +8104,7 @@
       <c r="G33" s="53"/>
       <c r="H33" s="53"/>
       <c r="I33" s="49" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J33" s="49" t="s">
         <v>2</v>
@@ -8115,7 +8116,7 @@
         <v>4</v>
       </c>
       <c r="M33" s="74" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N33" s="53">
         <v>3</v>
@@ -8125,7 +8126,7 @@
     </row>
     <row r="34" spans="1:16" ht="77.400000000000006" x14ac:dyDescent="0.5">
       <c r="A34" s="53" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B34" s="53">
         <v>2</v>
@@ -8133,7 +8134,7 @@
       <c r="C34" s="65"/>
       <c r="D34" s="65"/>
       <c r="E34" s="53" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F34" s="53">
         <v>2</v>
@@ -8141,7 +8142,7 @@
       <c r="G34" s="53"/>
       <c r="H34" s="53"/>
       <c r="I34" s="53" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J34" s="53">
         <v>3</v>
@@ -8149,7 +8150,7 @@
       <c r="K34" s="53"/>
       <c r="L34" s="53"/>
       <c r="M34" s="53" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N34" s="69">
         <v>3</v>
@@ -8159,7 +8160,7 @@
     </row>
     <row r="35" spans="1:16" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A35" s="53" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B35" s="53">
         <v>1</v>
@@ -8167,7 +8168,7 @@
       <c r="C35" s="65"/>
       <c r="D35" s="65"/>
       <c r="E35" s="53" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F35" s="53">
         <v>3</v>
@@ -8175,7 +8176,7 @@
       <c r="G35" s="75"/>
       <c r="H35" s="75"/>
       <c r="I35" s="53" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J35" s="53">
         <v>3</v>
@@ -8183,7 +8184,7 @@
       <c r="K35" s="53"/>
       <c r="L35" s="53"/>
       <c r="M35" s="53" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N35" s="53">
         <v>2</v>
@@ -8193,7 +8194,7 @@
     </row>
     <row r="36" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A36" s="53" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B36" s="53">
         <v>1</v>
@@ -8201,7 +8202,7 @@
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="53" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F36" s="53">
         <v>3</v>
@@ -8209,7 +8210,7 @@
       <c r="G36" s="65"/>
       <c r="H36" s="65"/>
       <c r="I36" s="53" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J36" s="53">
         <v>3</v>
@@ -8217,7 +8218,7 @@
       <c r="K36" s="53"/>
       <c r="L36" s="53"/>
       <c r="M36" s="53" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N36" s="53">
         <v>3</v>
@@ -8227,7 +8228,7 @@
     </row>
     <row r="37" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A37" s="53" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B37" s="53">
         <v>3</v>
@@ -8235,7 +8236,7 @@
       <c r="C37" s="65"/>
       <c r="D37" s="65"/>
       <c r="E37" s="53" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F37" s="53">
         <v>2</v>
@@ -8243,7 +8244,7 @@
       <c r="G37" s="65"/>
       <c r="H37" s="65"/>
       <c r="I37" s="53" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J37" s="53">
         <v>2</v>
@@ -8251,7 +8252,7 @@
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
       <c r="M37" s="53" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N37" s="53">
         <v>3</v>
@@ -8261,7 +8262,7 @@
     </row>
     <row r="38" spans="1:16" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="53" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B38" s="53">
         <v>2</v>
@@ -8269,7 +8270,7 @@
       <c r="C38" s="65"/>
       <c r="D38" s="65"/>
       <c r="E38" s="53" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F38" s="53">
         <v>2</v>
@@ -8277,23 +8278,23 @@
       <c r="G38" s="65"/>
       <c r="H38" s="65"/>
       <c r="I38" s="53" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J38" s="53">
         <v>3</v>
       </c>
       <c r="K38" s="53"/>
       <c r="L38" s="53"/>
-      <c r="M38" s="80" t="s">
-        <v>527</v>
-      </c>
-      <c r="N38" s="81">
+      <c r="M38" s="76" t="s">
+        <v>526</v>
+      </c>
+      <c r="N38" s="77">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A39" s="53" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B39" s="53">
         <v>2</v>
@@ -8301,7 +8302,7 @@
       <c r="C39" s="65"/>
       <c r="D39" s="65"/>
       <c r="E39" s="53" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F39" s="53">
         <v>3</v>
@@ -8309,7 +8310,7 @@
       <c r="G39" s="65"/>
       <c r="H39" s="65"/>
       <c r="I39" s="53" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J39" s="53">
         <v>3</v>
@@ -8319,7 +8320,7 @@
     </row>
     <row r="40" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="E40" s="53" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F40" s="53">
         <v>3</v>
@@ -8327,7 +8328,7 @@
       <c r="G40" s="65"/>
       <c r="H40" s="65"/>
       <c r="I40" s="53" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J40" s="53">
         <v>3</v>
@@ -8337,7 +8338,7 @@
     </row>
     <row r="41" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="E41" s="53" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F41" s="53">
         <v>2</v>
@@ -8345,7 +8346,7 @@
       <c r="G41" s="65"/>
       <c r="H41" s="65"/>
       <c r="I41" s="53" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J41" s="53">
         <v>3</v>
@@ -8355,7 +8356,7 @@
     </row>
     <row r="42" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="E42" s="53" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F42" s="53">
         <v>2</v>
@@ -8363,7 +8364,7 @@
       <c r="G42" s="65"/>
       <c r="H42" s="65"/>
       <c r="I42" s="53" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J42" s="53">
         <v>1</v>
@@ -8373,7 +8374,7 @@
     </row>
     <row r="43" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="E43" s="53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F43" s="53">
         <v>2</v>
@@ -8381,7 +8382,7 @@
       <c r="G43" s="65"/>
       <c r="H43" s="65"/>
       <c r="I43" s="53" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J43" s="53">
         <v>3</v>
@@ -8391,7 +8392,7 @@
     </row>
     <row r="44" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="I44" s="53" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J44" s="53">
         <v>3</v>
@@ -8401,7 +8402,7 @@
     </row>
     <row r="45" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="I45" s="53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J45" s="53">
         <v>3</v>
@@ -8411,7 +8412,7 @@
     </row>
     <row r="46" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="I46" s="53" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J46" s="53">
         <v>3</v>
@@ -8421,7 +8422,7 @@
     </row>
     <row r="47" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="I47" s="53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J47" s="53">
         <v>1</v>
@@ -8431,7 +8432,7 @@
     </row>
     <row r="48" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="I48" s="53" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J48" s="53">
         <v>3</v>
@@ -8441,7 +8442,7 @@
     </row>
     <row r="49" spans="9:12" ht="25.8" x14ac:dyDescent="0.3">
       <c r="I49" s="53" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J49" s="53">
         <v>3</v>

--- a/media/Excel/108_data.xlsx
+++ b/media/Excel/108_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommygood\grade1\imCredit\media\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBD68C8-21C6-4C4F-B22C-6985B1AB2F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C7B465-50EF-4DC6-82D3-8189CF3ABEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必修" sheetId="1" r:id="rId1"/>
@@ -1637,9 +1637,6 @@
     <t>濕地生態保育</t>
   </si>
   <si>
-    <t>咖啡學:消費與文化</t>
-  </si>
-  <si>
     <t>互動音樂程式設計與創作</t>
   </si>
   <si>
@@ -1725,6 +1722,10 @@
   </si>
   <si>
     <t>Linux 系統管理實務(一)$~$Linux 系統管理實務（一，入門）</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡學：消費與文化</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -3341,7 +3342,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -3645,7 +3646,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="30" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F11" s="31">
         <v>3</v>
@@ -6963,8 +6964,8 @@
   </sheetPr>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8184,7 +8185,7 @@
       <c r="K35" s="53"/>
       <c r="L35" s="53"/>
       <c r="M35" s="53" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="N35" s="53">
         <v>2</v>
@@ -8194,7 +8195,7 @@
     </row>
     <row r="36" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A36" s="53" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B36" s="53">
         <v>1</v>
@@ -8202,7 +8203,7 @@
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="53" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F36" s="53">
         <v>3</v>
@@ -8210,7 +8211,7 @@
       <c r="G36" s="65"/>
       <c r="H36" s="65"/>
       <c r="I36" s="53" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J36" s="53">
         <v>3</v>
@@ -8218,7 +8219,7 @@
       <c r="K36" s="53"/>
       <c r="L36" s="53"/>
       <c r="M36" s="53" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N36" s="53">
         <v>3</v>
@@ -8228,7 +8229,7 @@
     </row>
     <row r="37" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A37" s="53" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B37" s="53">
         <v>3</v>
@@ -8236,7 +8237,7 @@
       <c r="C37" s="65"/>
       <c r="D37" s="65"/>
       <c r="E37" s="53" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F37" s="53">
         <v>2</v>
@@ -8244,7 +8245,7 @@
       <c r="G37" s="65"/>
       <c r="H37" s="65"/>
       <c r="I37" s="53" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J37" s="53">
         <v>2</v>
@@ -8252,7 +8253,7 @@
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
       <c r="M37" s="53" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N37" s="53">
         <v>3</v>
@@ -8262,7 +8263,7 @@
     </row>
     <row r="38" spans="1:16" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="53" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B38" s="53">
         <v>2</v>
@@ -8270,7 +8271,7 @@
       <c r="C38" s="65"/>
       <c r="D38" s="65"/>
       <c r="E38" s="53" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F38" s="53">
         <v>2</v>
@@ -8278,7 +8279,7 @@
       <c r="G38" s="65"/>
       <c r="H38" s="65"/>
       <c r="I38" s="53" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J38" s="53">
         <v>3</v>
@@ -8286,7 +8287,7 @@
       <c r="K38" s="53"/>
       <c r="L38" s="53"/>
       <c r="M38" s="76" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N38" s="77">
         <v>2</v>
@@ -8294,7 +8295,7 @@
     </row>
     <row r="39" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A39" s="53" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B39" s="53">
         <v>2</v>
@@ -8302,7 +8303,7 @@
       <c r="C39" s="65"/>
       <c r="D39" s="65"/>
       <c r="E39" s="53" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F39" s="53">
         <v>3</v>
@@ -8310,7 +8311,7 @@
       <c r="G39" s="65"/>
       <c r="H39" s="65"/>
       <c r="I39" s="53" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J39" s="53">
         <v>3</v>
@@ -8320,7 +8321,7 @@
     </row>
     <row r="40" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="E40" s="53" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F40" s="53">
         <v>3</v>
@@ -8328,7 +8329,7 @@
       <c r="G40" s="65"/>
       <c r="H40" s="65"/>
       <c r="I40" s="53" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J40" s="53">
         <v>3</v>
@@ -8338,7 +8339,7 @@
     </row>
     <row r="41" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="E41" s="53" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F41" s="53">
         <v>2</v>
@@ -8346,7 +8347,7 @@
       <c r="G41" s="65"/>
       <c r="H41" s="65"/>
       <c r="I41" s="53" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J41" s="53">
         <v>3</v>
@@ -8356,7 +8357,7 @@
     </row>
     <row r="42" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="E42" s="53" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F42" s="53">
         <v>2</v>
@@ -8364,7 +8365,7 @@
       <c r="G42" s="65"/>
       <c r="H42" s="65"/>
       <c r="I42" s="53" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J42" s="53">
         <v>1</v>
@@ -8382,7 +8383,7 @@
       <c r="G43" s="65"/>
       <c r="H43" s="65"/>
       <c r="I43" s="53" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J43" s="53">
         <v>3</v>
@@ -8392,7 +8393,7 @@
     </row>
     <row r="44" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="I44" s="53" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J44" s="53">
         <v>3</v>
@@ -8402,7 +8403,7 @@
     </row>
     <row r="45" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="I45" s="53" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J45" s="53">
         <v>3</v>
@@ -8412,7 +8413,7 @@
     </row>
     <row r="46" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="I46" s="53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J46" s="53">
         <v>3</v>
@@ -8422,7 +8423,7 @@
     </row>
     <row r="47" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="I47" s="53" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J47" s="53">
         <v>1</v>
@@ -8432,7 +8433,7 @@
     </row>
     <row r="48" spans="1:16" ht="51.6" x14ac:dyDescent="0.3">
       <c r="I48" s="53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J48" s="53">
         <v>3</v>
@@ -8442,7 +8443,7 @@
     </row>
     <row r="49" spans="9:12" ht="25.8" x14ac:dyDescent="0.3">
       <c r="I49" s="53" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J49" s="53">
         <v>3</v>

--- a/media/Excel/108_data.xlsx
+++ b/media/Excel/108_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommygood\grade1\imCredit\media\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C7B465-50EF-4DC6-82D3-8189CF3ABEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2B4F6F-A3FE-4205-8C8A-2BDC753CD0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6964,8 +6964,8 @@
   </sheetPr>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
